--- a/data/trans_camb/P23_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 10,13</t>
+          <t>-4,21; 20,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 9,37</t>
+          <t>-10,55; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 3,03</t>
+          <t>-11,22; 5,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 2,37</t>
+          <t>-11,43; 4,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 4,27</t>
+          <t>-10,52; 5,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,28</t>
+          <t>-3,85; 13,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 8,71</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,48; 2,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 7,22</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-18,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>-18,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,59%</t>
+          <t>21,83%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,01%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 76,27</t>
+          <t>-24,72; 168,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 69,7</t>
+          <t>-52,88; 52,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 18,5</t>
+          <t>-55,53; 41,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,03; 13,53</t>
+          <t>-46,8; 21,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 27,33</t>
+          <t>-40,58; 29,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 19,3</t>
+          <t>-15,9; 79,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-28,35; 54,23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,2; 18,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,3; 45,33</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-6,39</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 3,88</t>
+          <t>-14,66; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,24</t>
+          <t>-12,97; 4,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 6,94</t>
+          <t>-9,08; 8,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -0,45</t>
+          <t>-9,48; 9,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,71</t>
+          <t>-16,76; 0,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -1,1</t>
+          <t>-12,24; 5,95</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 2,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; -0,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 4,76</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,51%</t>
+          <t>-40,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,63%</t>
+          <t>-25,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-31,64%</t>
+          <t>-2,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-35,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-31,22%</t>
+          <t>-15,39%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-18,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-32,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-11,56%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,92; 30,03</t>
+          <t>-69,28; 17,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 16,63</t>
+          <t>-61,37; 35,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 39,04</t>
+          <t>-44,01; 77,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,64; -2,3</t>
+          <t>-35,38; 60,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 16,38</t>
+          <t>-60,4; 6,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,0; -5,93</t>
+          <t>-46,21; 33,74</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-43,47; 16,56</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-52,42; -3,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-38,03; 29,02</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,8</t>
+          <t>10,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-9,63</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,3</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 15,17</t>
+          <t>-13,44; 35,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 12,51</t>
+          <t>-11,86; 38,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 13,67</t>
+          <t>-18,22; 24,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -2,56</t>
+          <t>-8,49; 29,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 9,96</t>
+          <t>-28,15; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 1,56</t>
+          <t>-27,58; 6,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 26,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 14,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,38; 9,73</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,94%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-62,78%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-55,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-40,65%</t>
+          <t>-53,03%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>69,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-21,22%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 161,22</t>
+          <t>-65,24; 711,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 116,99</t>
+          <t>-65,25; 913,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 99,85</t>
+          <t>-81,46; 577,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,52; -9,56</t>
+          <t>-40,15; 340,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 69,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,89; 15,04</t>
+          <t>-100,0; 124,46</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 278,61</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-64,54; 159,79</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-71,45; 118,86</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 3,73</t>
+          <t>-5,22; 9,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 2,34</t>
+          <t>-7,67; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 3,04</t>
+          <t>-7,16; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -1,47</t>
+          <t>-7,1; 4,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,75</t>
+          <t>-10,89; -0,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -0,82</t>
+          <t>-6,13; 6,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,68</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -0,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 3,49</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>-13,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-8,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-28,51%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>-25,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-3,98%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 24,81</t>
+          <t>-29,36; 75,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 16,28</t>
+          <t>-40,77; 29,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 17,36</t>
+          <t>-37,67; 40,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,64; -7,07</t>
+          <t>-29,16; 24,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 9,96</t>
+          <t>-45,08; -1,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,69; -4,67</t>
+          <t>-26,18; 31,64</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-21,43; 27,33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; -0,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-23,5; 21,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
